--- a/pali-class/vocab/vocab-class28.xlsx
+++ b/pali-class/vocab/vocab-class28.xlsx
@@ -928,51 +928,51 @@
     <t>kira 1</t>
   </si>
   <si>
+    <t>avidūre</t>
+  </si>
+  <si>
+    <t>antamaso 1</t>
+  </si>
+  <si>
+    <t>sukhaṃ</t>
+  </si>
+  <si>
+    <t>ṭhānaso 1</t>
+  </si>
+  <si>
+    <t>uddhaṃ 1</t>
+  </si>
+  <si>
+    <t>sammā 2</t>
+  </si>
+  <si>
+    <t>sammā 1</t>
+  </si>
+  <si>
+    <t>eva 1</t>
+  </si>
+  <si>
+    <t>vitthārena 1</t>
+  </si>
+  <si>
+    <t>vata 1.2</t>
+  </si>
+  <si>
+    <t>yathā 1</t>
+  </si>
+  <si>
+    <t>ubhato</t>
+  </si>
+  <si>
+    <t>sādhu 3</t>
+  </si>
+  <si>
+    <t>dūrato</t>
+  </si>
+  <si>
     <t>dukkhaṃ</t>
   </si>
   <si>
-    <t>avidūre</t>
-  </si>
-  <si>
-    <t>antamaso 1</t>
-  </si>
-  <si>
-    <t>sukhaṃ</t>
-  </si>
-  <si>
-    <t>ṭhānaso 1</t>
-  </si>
-  <si>
-    <t>uddhaṃ 1</t>
-  </si>
-  <si>
-    <t>sammā 2</t>
-  </si>
-  <si>
-    <t>sammā 1</t>
-  </si>
-  <si>
-    <t>eva 1</t>
-  </si>
-  <si>
-    <t>vitthārena 1</t>
-  </si>
-  <si>
-    <t>vata 1.2</t>
-  </si>
-  <si>
-    <t>yathā 1</t>
-  </si>
-  <si>
-    <t>ubhato</t>
-  </si>
-  <si>
-    <t>sādhu 3</t>
-  </si>
-  <si>
-    <t>dūrato</t>
-  </si>
-  <si>
     <t>atha 1</t>
   </si>
   <si>
@@ -2845,45 +2845,45 @@
     <t>senā</t>
   </si>
   <si>
+    <t>saṅkhā 2</t>
+  </si>
+  <si>
+    <t>pajā 2</t>
+  </si>
+  <si>
+    <t>vipassanā</t>
+  </si>
+  <si>
+    <t>jarā</t>
+  </si>
+  <si>
+    <t>nibbidā</t>
+  </si>
+  <si>
+    <t>upāsikā</t>
+  </si>
+  <si>
+    <t>cārikā</t>
+  </si>
+  <si>
+    <t>paññā 1</t>
+  </si>
+  <si>
+    <t>gāthā 1</t>
+  </si>
+  <si>
+    <t>vācā 1</t>
+  </si>
+  <si>
+    <t>devatā</t>
+  </si>
+  <si>
+    <t>vijjā 1</t>
+  </si>
+  <si>
     <t>aññā 1</t>
   </si>
   <si>
-    <t>saṅkhā 2</t>
-  </si>
-  <si>
-    <t>pajā 2</t>
-  </si>
-  <si>
-    <t>vipassanā</t>
-  </si>
-  <si>
-    <t>jarā</t>
-  </si>
-  <si>
-    <t>nibbidā</t>
-  </si>
-  <si>
-    <t>upāsikā</t>
-  </si>
-  <si>
-    <t>cārikā</t>
-  </si>
-  <si>
-    <t>paññā 1</t>
-  </si>
-  <si>
-    <t>gāthā 1</t>
-  </si>
-  <si>
-    <t>vācā 1</t>
-  </si>
-  <si>
-    <t>devatā</t>
-  </si>
-  <si>
-    <t>vijjā 1</t>
-  </si>
-  <si>
     <t>saññā 1</t>
   </si>
   <si>
@@ -3274,171 +3274,171 @@
     <t>mukha 3</t>
   </si>
   <si>
+    <t>tela</t>
+  </si>
+  <si>
+    <t>bhāsita 1</t>
+  </si>
+  <si>
+    <t>mukha 2</t>
+  </si>
+  <si>
+    <t>āsana 1</t>
+  </si>
+  <si>
+    <t>kula 1</t>
+  </si>
+  <si>
+    <t>indriya 1</t>
+  </si>
+  <si>
+    <t>ṭhāna 02</t>
+  </si>
+  <si>
+    <t>pāmojja</t>
+  </si>
+  <si>
+    <t>nidāna 1</t>
+  </si>
+  <si>
+    <t>nagara 1</t>
+  </si>
+  <si>
+    <t>padhāna 1</t>
+  </si>
+  <si>
+    <t>rūpa 1</t>
+  </si>
+  <si>
+    <t>pamāṇa 3</t>
+  </si>
+  <si>
+    <t>upādāna 2</t>
+  </si>
+  <si>
+    <t>pācittiya 1</t>
+  </si>
+  <si>
+    <t>ghara 1</t>
+  </si>
+  <si>
+    <t>dassana 3</t>
+  </si>
+  <si>
+    <t>raṭṭha</t>
+  </si>
+  <si>
+    <t>bhadra 3</t>
+  </si>
+  <si>
+    <t>sarīra 1</t>
+  </si>
+  <si>
+    <t>kusala 4</t>
+  </si>
+  <si>
+    <t>pāpa 3</t>
+  </si>
+  <si>
+    <t>vera</t>
+  </si>
+  <si>
+    <t>amata 1</t>
+  </si>
+  <si>
+    <t>adinna 1</t>
+  </si>
+  <si>
+    <t>bhesajja</t>
+  </si>
+  <si>
+    <t>dhana 1</t>
+  </si>
+  <si>
+    <t>cīvara</t>
+  </si>
+  <si>
+    <t>tīra</t>
+  </si>
+  <si>
+    <t>santhata 1</t>
+  </si>
+  <si>
+    <t>nissaraṇa</t>
+  </si>
+  <si>
+    <t>itthatta 1</t>
+  </si>
+  <si>
+    <t>pada 02</t>
+  </si>
+  <si>
+    <t>mūla 2</t>
+  </si>
+  <si>
+    <t>vedayita</t>
+  </si>
+  <si>
+    <t>nāma 5</t>
+  </si>
+  <si>
+    <t>agāra 1</t>
+  </si>
+  <si>
+    <t>domanassa</t>
+  </si>
+  <si>
+    <t>maraṇa</t>
+  </si>
+  <si>
+    <t>jīva 2</t>
+  </si>
+  <si>
+    <t>vassa 3</t>
+  </si>
+  <si>
+    <t>ottappa</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 1</t>
+  </si>
+  <si>
+    <t>veyyākaraṇa 2</t>
+  </si>
+  <si>
+    <t>mūla 1</t>
+  </si>
+  <si>
+    <t>jīvita 2</t>
+  </si>
+  <si>
+    <t>sukhāya</t>
+  </si>
+  <si>
+    <t>sacca 2</t>
+  </si>
+  <si>
+    <t>anādariya</t>
+  </si>
+  <si>
+    <t>khetta 1</t>
+  </si>
+  <si>
+    <t>aṅga 3</t>
+  </si>
+  <si>
+    <t>cakka 1</t>
+  </si>
+  <si>
+    <t>nāma 4</t>
+  </si>
+  <si>
+    <t>parinibbāna 1</t>
+  </si>
+  <si>
     <t>nibbāna 2</t>
   </si>
   <si>
-    <t>tela</t>
-  </si>
-  <si>
-    <t>bhāsita 1</t>
-  </si>
-  <si>
-    <t>mukha 2</t>
-  </si>
-  <si>
-    <t>āsana 1</t>
-  </si>
-  <si>
-    <t>kula 1</t>
-  </si>
-  <si>
-    <t>indriya 1</t>
-  </si>
-  <si>
-    <t>ṭhāna 02</t>
-  </si>
-  <si>
-    <t>pāmojja</t>
-  </si>
-  <si>
-    <t>nidāna 1</t>
-  </si>
-  <si>
-    <t>nagara 1</t>
-  </si>
-  <si>
-    <t>padhāna 1</t>
-  </si>
-  <si>
-    <t>rūpa 1</t>
-  </si>
-  <si>
-    <t>pamāṇa 3</t>
-  </si>
-  <si>
-    <t>upādāna 2</t>
-  </si>
-  <si>
-    <t>pācittiya 1</t>
-  </si>
-  <si>
-    <t>ghara 1</t>
-  </si>
-  <si>
-    <t>dassana 3</t>
-  </si>
-  <si>
-    <t>raṭṭha</t>
-  </si>
-  <si>
-    <t>bhadra 3</t>
-  </si>
-  <si>
-    <t>sarīra 1</t>
-  </si>
-  <si>
-    <t>kusala 4</t>
-  </si>
-  <si>
-    <t>pāpa 3</t>
-  </si>
-  <si>
-    <t>vera</t>
-  </si>
-  <si>
-    <t>amata 1</t>
-  </si>
-  <si>
-    <t>adinna 1</t>
-  </si>
-  <si>
-    <t>bhesajja</t>
-  </si>
-  <si>
-    <t>dhana 1</t>
-  </si>
-  <si>
-    <t>cīvara</t>
-  </si>
-  <si>
-    <t>tīra</t>
-  </si>
-  <si>
-    <t>santhata 1</t>
-  </si>
-  <si>
-    <t>nissaraṇa</t>
-  </si>
-  <si>
-    <t>itthatta 1</t>
-  </si>
-  <si>
-    <t>pada 02</t>
-  </si>
-  <si>
-    <t>mūla 2</t>
-  </si>
-  <si>
-    <t>vedayita</t>
-  </si>
-  <si>
-    <t>nāma 5</t>
-  </si>
-  <si>
-    <t>agāra 1</t>
-  </si>
-  <si>
-    <t>domanassa</t>
-  </si>
-  <si>
-    <t>maraṇa</t>
-  </si>
-  <si>
-    <t>jīva 2</t>
-  </si>
-  <si>
-    <t>vassa 3</t>
-  </si>
-  <si>
-    <t>ottappa</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 1</t>
-  </si>
-  <si>
-    <t>veyyākaraṇa 2</t>
-  </si>
-  <si>
-    <t>mūla 1</t>
-  </si>
-  <si>
-    <t>jīvita 2</t>
-  </si>
-  <si>
-    <t>sukhāya</t>
-  </si>
-  <si>
-    <t>sacca 2</t>
-  </si>
-  <si>
-    <t>anādariya</t>
-  </si>
-  <si>
-    <t>khetta 1</t>
-  </si>
-  <si>
-    <t>aṅga 3</t>
-  </si>
-  <si>
-    <t>cakka 1</t>
-  </si>
-  <si>
-    <t>nāma 4</t>
-  </si>
-  <si>
-    <t>parinibbāna 1</t>
-  </si>
-  <si>
     <t>bhaya 3</t>
   </si>
   <si>
@@ -4609,51 +4609,51 @@
     <t>really; truly; definitely</t>
   </si>
   <si>
+    <t>near (to); not far (from)</t>
+  </si>
+  <si>
+    <t>even so much as; even with; even down to; with as little as</t>
+  </si>
+  <si>
+    <t>easily; comfortably; pleasantly; happily</t>
+  </si>
+  <si>
+    <t>on the spot; right there; immediately; lit. from the place</t>
+  </si>
+  <si>
+    <t>above; up; on top</t>
+  </si>
+  <si>
+    <t>perfectly; rightly; correctly; properly</t>
+  </si>
+  <si>
+    <t>completely; thoroughly; fully; totally</t>
+  </si>
+  <si>
+    <t>only; just; merely; exclusively</t>
+  </si>
+  <si>
+    <t>in detail; in full; thoroughly</t>
+  </si>
+  <si>
+    <t>certainly; surely; indeed</t>
+  </si>
+  <si>
+    <t>like; as; as per; according to; how; in whatever way</t>
+  </si>
+  <si>
+    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
+  </si>
+  <si>
+    <t>it is good (for); it would be good (if)</t>
+  </si>
+  <si>
+    <t>from far away; from afar</t>
+  </si>
+  <si>
     <t>badly; with difficulty; uncomfortably</t>
   </si>
   <si>
-    <t>near (to); not far (from)</t>
-  </si>
-  <si>
-    <t>even so much as; even with; even down to; with as little as</t>
-  </si>
-  <si>
-    <t>easily; comfortably; pleasantly; happily</t>
-  </si>
-  <si>
-    <t>on the spot; right there; immediately; lit. from the place</t>
-  </si>
-  <si>
-    <t>above; up; on top</t>
-  </si>
-  <si>
-    <t>perfectly; rightly; correctly; properly</t>
-  </si>
-  <si>
-    <t>completely; thoroughly; fully; totally</t>
-  </si>
-  <si>
-    <t>only; just; merely; exclusively</t>
-  </si>
-  <si>
-    <t>in detail; in full; thoroughly</t>
-  </si>
-  <si>
-    <t>certainly; surely; indeed</t>
-  </si>
-  <si>
-    <t>like; as; as per; according to; how; in whatever way</t>
-  </si>
-  <si>
-    <t>both; on both sides (of); in both ways; dually; lit. from both</t>
-  </si>
-  <si>
-    <t>it is good (for); it would be good (if)</t>
-  </si>
-  <si>
-    <t>from far away; from afar</t>
-  </si>
-  <si>
     <t>then; also; and so; after that</t>
   </si>
   <si>
@@ -6514,42 +6514,42 @@
     <t>army; military</t>
   </si>
   <si>
+    <t>definition; classification; concept; category</t>
+  </si>
+  <si>
+    <t>people; population; generation; mankind</t>
+  </si>
+  <si>
+    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
+  </si>
+  <si>
+    <t>old age; ageing</t>
+  </si>
+  <si>
+    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
+  </si>
+  <si>
+    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
+  </si>
+  <si>
+    <t>walking tour; walking journey</t>
+  </si>
+  <si>
+    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
+  </si>
+  <si>
+    <t>verse; poem; stanza; lit. song</t>
+  </si>
+  <si>
+    <t>speech; words; statement; talk</t>
+  </si>
+  <si>
+    <t>knowledge; wisdom; understanding</t>
+  </si>
+  <si>
     <t>gnosis; spiritual insight; enlightenment; final knowledge</t>
   </si>
   <si>
-    <t>definition; classification; concept; category</t>
-  </si>
-  <si>
-    <t>people; population; generation; mankind</t>
-  </si>
-  <si>
-    <t>insight; penetrating internal vision; introspection; lit. seeing distinctly</t>
-  </si>
-  <si>
-    <t>old age; ageing</t>
-  </si>
-  <si>
-    <t>dis-enchantment (towards); de-illusionment (with); disinterest (in); dispassion (towards)</t>
-  </si>
-  <si>
-    <t>female disciple; laywomen; female devotee; lit. sitting near</t>
-  </si>
-  <si>
-    <t>walking tour; walking journey</t>
-  </si>
-  <si>
-    <t>wisdom; knowledge; understanding; insight; distinctive knowledge</t>
-  </si>
-  <si>
-    <t>verse; poem; stanza; lit. song</t>
-  </si>
-  <si>
-    <t>speech; words; statement; talk</t>
-  </si>
-  <si>
-    <t>knowledge; wisdom; understanding</t>
-  </si>
-  <si>
     <t>perception; conception; recognition; third of the five aggregates</t>
   </si>
   <si>
@@ -6931,169 +6931,169 @@
     <t>face</t>
   </si>
   <si>
+    <t>(sesame) oil; lit. from sesame</t>
+  </si>
+  <si>
+    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>seat; chair; lit. sitting</t>
+  </si>
+  <si>
+    <t>family; house; household; respectable family</t>
+  </si>
+  <si>
+    <t>sense; mental faculty; power; lit. belonging to Inda</t>
+  </si>
+  <si>
+    <t>reason; grounds; basis; cause; lit. standing</t>
+  </si>
+  <si>
+    <t>joy; happiness; gladness</t>
+  </si>
+  <si>
+    <t>source; origin; foundation; cause; reason; lit. tying down</t>
+  </si>
+  <si>
+    <t>town; city</t>
+  </si>
+  <si>
+    <t>making effort; exerting; striving; trying (to)</t>
+  </si>
+  <si>
+    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
+  </si>
+  <si>
+    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
+  </si>
+  <si>
+    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
+  </si>
+  <si>
+    <t>(vinaya) offence requiring confession</t>
+  </si>
+  <si>
+    <t>house; home; household</t>
+  </si>
+  <si>
+    <t>insight; realization; spiritual vision; lit. seeing</t>
+  </si>
+  <si>
+    <t>country; land; kingdom; realm</t>
+  </si>
+  <si>
+    <t>good fortune; good luck</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>good; benefit; merit; good deed; doing good</t>
+  </si>
+  <si>
+    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
+  </si>
+  <si>
+    <t>hatred; ill-will; animosity; hostility</t>
+  </si>
+  <si>
+    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
+  </si>
+  <si>
+    <t>which is not given; something not offered</t>
+  </si>
+  <si>
+    <t>medicine; remedy; tonic; drug</t>
+  </si>
+  <si>
+    <t>wealth; riches; treasure</t>
+  </si>
+  <si>
+    <t>robe; cloth; robe-cloth; lit. rags</t>
+  </si>
+  <si>
+    <t>shore; riverbank; beach</t>
+  </si>
+  <si>
+    <t>spread; bedspread; coverlet; counterpane</t>
+  </si>
+  <si>
+    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
+  </si>
+  <si>
+    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
+  </si>
+  <si>
+    <t>path; track; way</t>
+  </si>
+  <si>
+    <t>source; origin; root</t>
+  </si>
+  <si>
+    <t>which is felt; felt experience; feeling; lit. felt</t>
+  </si>
+  <si>
+    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
+  </si>
+  <si>
+    <t>dwelling; building; house; hut</t>
+  </si>
+  <si>
+    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
+  </si>
+  <si>
+    <t>death; dying</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>regret; shame in wrongdoing; respect for others</t>
+  </si>
+  <si>
+    <t>answer; reply</t>
+  </si>
+  <si>
+    <t>detailed exposition; one of the nine kinds of suttas</t>
+  </si>
+  <si>
+    <t>(of a tree) root; base; foot</t>
+  </si>
+  <si>
+    <t>livelihood; lifestyle; way of life</t>
+  </si>
+  <si>
+    <t>comfortable (for); lit. for the comfort</t>
+  </si>
+  <si>
+    <t>truth</t>
+  </si>
+  <si>
+    <t>disrespect (for); rudeness (towards); contemptuous (towards)</t>
+  </si>
+  <si>
+    <t>field; plot of land</t>
+  </si>
+  <si>
+    <t>factor; component; element; quality; aspect; lit. part</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
+  </si>
+  <si>
     <t>(of mental defilement) complete quenching; total emancipation; complete cooling; lit. blowing away</t>
-  </si>
-  <si>
-    <t>(sesame) oil; lit. from sesame</t>
-  </si>
-  <si>
-    <t>saying; speech; statement; utterance; talk; words; lit. what was said</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>seat; chair; lit. sitting</t>
-  </si>
-  <si>
-    <t>family; house; household; respectable family</t>
-  </si>
-  <si>
-    <t>sense; mental faculty; power; lit. belonging to Inda</t>
-  </si>
-  <si>
-    <t>reason; grounds; basis; cause; lit. standing</t>
-  </si>
-  <si>
-    <t>joy; happiness; gladness</t>
-  </si>
-  <si>
-    <t>source; origin; foundation; cause; reason; lit. tying down</t>
-  </si>
-  <si>
-    <t>town; city</t>
-  </si>
-  <si>
-    <t>making effort; exerting; striving; trying (to)</t>
-  </si>
-  <si>
-    <t>matter; material thing; materiality; experience of material world; physical objects of consciousness; first of the five aggregates; lit. form</t>
-  </si>
-  <si>
-    <t>measure; measurement; length; size; amount; quantity; lit. measuring</t>
-  </si>
-  <si>
-    <t>acquiring; appropriating; taking possession; grasping; clinging; identifying; lit. taking near</t>
-  </si>
-  <si>
-    <t>(vinaya) offence requiring confession</t>
-  </si>
-  <si>
-    <t>house; home; household</t>
-  </si>
-  <si>
-    <t>insight; realization; spiritual vision; lit. seeing</t>
-  </si>
-  <si>
-    <t>country; land; kingdom; realm</t>
-  </si>
-  <si>
-    <t>good fortune; good luck</t>
-  </si>
-  <si>
-    <t>body</t>
-  </si>
-  <si>
-    <t>good; benefit; merit; good deed; doing good</t>
-  </si>
-  <si>
-    <t>evil action (in); crime (in); sin (in); wrongdoing (in); misdeed (in)</t>
-  </si>
-  <si>
-    <t>hatred; ill-will; animosity; hostility</t>
-  </si>
-  <si>
-    <t>deathless state; immortality; ambrosia; drink of immortality; epithet of Nibbāna</t>
-  </si>
-  <si>
-    <t>which is not given; something not offered</t>
-  </si>
-  <si>
-    <t>medicine; remedy; tonic; drug</t>
-  </si>
-  <si>
-    <t>wealth; riches; treasure</t>
-  </si>
-  <si>
-    <t>robe; cloth; robe-cloth; lit. rags</t>
-  </si>
-  <si>
-    <t>shore; riverbank; beach</t>
-  </si>
-  <si>
-    <t>spread; bedspread; coverlet; counterpane</t>
-  </si>
-  <si>
-    <t>escape (from); exit (from); exodus (from); way out (of); lit. going out</t>
-  </si>
-  <si>
-    <t>present state of existence; earthly existence; such an existence; lit. here state</t>
-  </si>
-  <si>
-    <t>path; track; way</t>
-  </si>
-  <si>
-    <t>source; origin; root</t>
-  </si>
-  <si>
-    <t>which is felt; felt experience; feeling; lit. felt</t>
-  </si>
-  <si>
-    <t>mental objects of consciousness; mentality; mental factors of feeling, perception, intention, contact and attention; lit. name</t>
-  </si>
-  <si>
-    <t>dwelling; building; house; hut</t>
-  </si>
-  <si>
-    <t>(mental) suffering; distress; dissatisfaction; dejection; depression; grief</t>
-  </si>
-  <si>
-    <t>death; dying</t>
-  </si>
-  <si>
-    <t>life</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>regret; shame in wrongdoing; respect for others</t>
-  </si>
-  <si>
-    <t>answer; reply</t>
-  </si>
-  <si>
-    <t>detailed exposition; one of the nine kinds of suttas</t>
-  </si>
-  <si>
-    <t>(of a tree) root; base; foot</t>
-  </si>
-  <si>
-    <t>livelihood; lifestyle; way of life</t>
-  </si>
-  <si>
-    <t>comfortable (for); lit. for the comfort</t>
-  </si>
-  <si>
-    <t>truth</t>
-  </si>
-  <si>
-    <t>disrespect (for); rudeness (towards); contemptuous (towards)</t>
-  </si>
-  <si>
-    <t>field; plot of land</t>
-  </si>
-  <si>
-    <t>factor; component; element; quality; aspect; lit. part</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>(of mental defilement) complete quenching; total emancipation; complete cooling</t>
   </si>
   <si>
     <t>danger (of; from); peril (of; from)</t>
@@ -24075,7 +24075,7 @@
         <v>1227</v>
       </c>
       <c r="C950" t="s">
-        <v>2176</v>
+        <v>1737</v>
       </c>
       <c r="D950" t="s">
         <v>2463</v>
@@ -24092,7 +24092,7 @@
         <v>1227</v>
       </c>
       <c r="C951" t="s">
-        <v>1737</v>
+        <v>2176</v>
       </c>
       <c r="D951" t="s">
         <v>2463</v>
@@ -28444,7 +28444,7 @@
         <v>1232</v>
       </c>
       <c r="C1207" t="s">
-        <v>2345</v>
+        <v>2344</v>
       </c>
       <c r="D1207" t="s">
         <v>2504</v>
